--- a/patient_data/patient_49.xlsx
+++ b/patient_data/patient_49.xlsx
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -945,19 +945,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1866,16 +1866,16 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -1928,31 +1928,31 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2017,19 +2017,19 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2094,19 +2094,19 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2171,19 +2171,19 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2248,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2340,10 +2340,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2417,10 +2417,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
